--- a/opm_hero_property/heroes/111.xlsx
+++ b/opm_hero_property/heroes/111.xlsx
@@ -6883,7 +6883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7079,40 +7079,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -7152,7 +7172,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>111</v>
@@ -7179,13 +7199,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5852004.0078146</v>
+        <v>6794721.4312546</v>
       </c>
       <c r="U2" t="n">
-        <v>883149.6318462</v>
+        <v>1061591.4947262</v>
       </c>
       <c r="V2" t="n">
-        <v>857074.21057981</v>
+        <v>992308.29865181</v>
       </c>
       <c r="W2" t="n">
         <v>1940</v>
@@ -7224,7 +7244,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -7237,28 +7257,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>12299029.796575</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>989779.181259125</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2010530</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2994386.383726</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1967705.9</v>
+      </c>
+      <c r="AU2" t="n">
         <v>994565.9005531624</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16889068.17838729</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19840630.46211329</v>
       </c>
     </row>
     <row r="3">
@@ -7295,7 +7323,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>111</v>
@@ -7322,13 +7350,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>746955.4308817</v>
+        <v>853121.0187617</v>
       </c>
       <c r="U3" t="n">
-        <v>117429.2567494</v>
+        <v>137524.8393094</v>
       </c>
       <c r="V3" t="n">
-        <v>115741.07499693</v>
+        <v>131287.47321293</v>
       </c>
       <c r="W3" t="n">
         <v>1940</v>
@@ -7367,7 +7395,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7380,28 +7408,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1393419.966075</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>113097.466339125</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>431854.8</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>543262.397286</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>222809.3</v>
+      </c>
+      <c r="AU3" t="n">
         <v>116591.2012707825</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2237883.483684908</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2572100.380970907</v>
       </c>
     </row>
     <row r="4">
@@ -7438,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>111</v>
@@ -7465,13 +7501,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>8004.566</v>
+        <v>8500.565999999999</v>
       </c>
       <c r="U4" t="n">
-        <v>1663.8695</v>
+        <v>1757.8695</v>
       </c>
       <c r="V4" t="n">
-        <v>607.6663</v>
+        <v>678.6663</v>
       </c>
       <c r="W4" t="n">
         <v>550</v>
@@ -7510,25 +7546,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>20209.946775</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4498.9</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7536,7 +7568,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>24708.846775</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1552.85</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>26261.696775</v>
       </c>
     </row>
     <row r="5">
@@ -7573,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>111</v>
@@ -7600,13 +7644,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>21542.5777</v>
+        <v>36135.5777</v>
       </c>
       <c r="U5" t="n">
-        <v>4186.7546</v>
+        <v>6948.7546</v>
       </c>
       <c r="V5" t="n">
-        <v>1853.308</v>
+        <v>3946.308</v>
       </c>
       <c r="W5" t="n">
         <v>638</v>
@@ -7645,25 +7689,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>51877.60544000001</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11906.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7671,7 +7711,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>63784.40544</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>45685.55</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>109469.95544</v>
       </c>
     </row>
     <row r="6">
@@ -7708,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>111</v>
@@ -7735,13 +7787,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>61709.9416</v>
+        <v>124274.9416</v>
       </c>
       <c r="U6" t="n">
-        <v>10441.45</v>
+        <v>22283.45</v>
       </c>
       <c r="V6" t="n">
-        <v>6038.008</v>
+        <v>15013.008</v>
       </c>
       <c r="W6" t="n">
         <v>900</v>
@@ -7780,33 +7832,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>124985.9926</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9157</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>173041.9926</v>
+      <c r="AT6" t="n">
+        <v>195881.05</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>368923.0426</v>
       </c>
     </row>
     <row r="7">
@@ -7843,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>111</v>
@@ -7870,13 +7930,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>77043.94074448</v>
+        <v>139608.94074448</v>
       </c>
       <c r="U7" t="n">
-        <v>12006.90409</v>
+        <v>23848.90409</v>
       </c>
       <c r="V7" t="n">
-        <v>7830.9972504</v>
+        <v>16805.9972504</v>
       </c>
       <c r="W7" t="n">
         <v>900</v>
@@ -7915,7 +7975,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7928,28 +7988,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>124985.9926</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9395</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>195881.05</v>
+      </c>
+      <c r="AU7" t="n">
         <v>36445.32055528</v>
       </c>
-      <c r="AS7" t="n">
-        <v>209725.31315528</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>405606.36315528</v>
       </c>
     </row>
     <row r="8">
@@ -7986,7 +8054,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>111</v>
@@ -8013,13 +8081,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>92544.06765536001</v>
+        <v>155109.06765536</v>
       </c>
       <c r="U8" t="n">
-        <v>13572.35818</v>
+        <v>25414.35818</v>
       </c>
       <c r="V8" t="n">
-        <v>9646.8349416</v>
+        <v>18621.8349416</v>
       </c>
       <c r="W8" t="n">
         <v>900</v>
@@ -8058,7 +8126,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -8071,28 +8139,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>124985.9926</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>288.2929964</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9395</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>195881.05</v>
+      </c>
+      <c r="AU8" t="n">
         <v>72899.85441515999</v>
       </c>
-      <c r="AS8" t="n">
-        <v>246468.14001156</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>442349.19001156</v>
       </c>
     </row>
     <row r="9">
@@ -8129,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>111</v>
@@ -8156,31 +8232,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>261991.7094</v>
+        <v>447278.436494</v>
       </c>
       <c r="U9" t="n">
-        <v>42921.24000000001</v>
+        <v>75972.7424</v>
       </c>
       <c r="V9" t="n">
-        <v>29269.6598</v>
+        <v>54582.626398</v>
       </c>
       <c r="W9" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X9" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA9" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB9" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -8201,33 +8277,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>569735.15925</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>737761.80925</v>
+        <v>44435.1015925</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>458974.95</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1296773.4608425</v>
       </c>
     </row>
     <row r="10">
@@ -8264,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>111</v>
@@ -8291,31 +8375,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>279243.02737092</v>
+        <v>522488.2500452885</v>
       </c>
       <c r="U10" t="n">
-        <v>44602.231008</v>
+        <v>87170.835810688</v>
       </c>
       <c r="V10" t="n">
-        <v>31293.26205574</v>
+        <v>63122.34076950732</v>
       </c>
       <c r="W10" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X10" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA10" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB10" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -8336,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8349,28 +8433,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>569735.15925</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>1414.49480685</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44435.1015925</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>458974.95</v>
+      </c>
+      <c r="AU10" t="n">
         <v>39071.374089775</v>
       </c>
-      <c r="AS10" t="n">
-        <v>778247.6781466251</v>
+      <c r="AV10" t="n">
+        <v>255441.7468245779</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1498353.476563703</v>
       </c>
     </row>
     <row r="11">
@@ -8407,7 +8503,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>111</v>
@@ -8434,31 +8530,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>352805.8442802</v>
+        <v>661549.9176589355</v>
       </c>
       <c r="U11" t="n">
-        <v>51326.19504000001</v>
+        <v>102847.55054784</v>
       </c>
       <c r="V11" t="n">
-        <v>40083.68953662</v>
+        <v>79196.99594504316</v>
       </c>
       <c r="W11" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X11" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA11" t="n">
-        <v>3080</v>
+        <v>3090</v>
       </c>
       <c r="AB11" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8479,7 +8575,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8492,28 +8588,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>569735.15925</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>15729.44287535</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44435.1015925</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>458974.95</v>
+      </c>
+      <c r="AU11" t="n">
         <v>195429.552766415</v>
       </c>
-      <c r="AS11" t="n">
-        <v>948920.8048917651</v>
+      <c r="AV11" t="n">
+        <v>424598.8866387648</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1838183.74312303</v>
       </c>
     </row>
     <row r="12">
@@ -8550,7 +8658,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>111</v>
@@ -8577,31 +8685,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>360396.7526562</v>
+        <v>751884.2888249541</v>
       </c>
       <c r="U12" t="n">
-        <v>51326.19504000001</v>
+        <v>112140.20508624</v>
       </c>
       <c r="V12" t="n">
-        <v>41223.52252662</v>
+        <v>91371.40566785404</v>
       </c>
       <c r="W12" t="n">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="X12" t="n">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="AA12" t="n">
-        <v>3280</v>
+        <v>3300</v>
       </c>
       <c r="AB12" t="n">
-        <v>2010</v>
+        <v>2090</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8622,7 +8730,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8635,28 +8743,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>569735.15925</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>30044.39094385</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44435.1015925</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>458974.95</v>
+      </c>
+      <c r="AU12" t="n">
         <v>195429.552766415</v>
       </c>
-      <c r="AS12" t="n">
-        <v>963235.752960265</v>
+      <c r="AV12" t="n">
+        <v>635030.4819574058</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>2062930.286510171</v>
       </c>
     </row>
     <row r="13">
@@ -8693,7 +8813,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>111</v>
@@ -8720,31 +8840,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>448593.02414668</v>
+        <v>938004.6980167342</v>
       </c>
       <c r="U13" t="n">
-        <v>59540.61380800001</v>
+        <v>133375.390648368</v>
       </c>
       <c r="V13" t="n">
-        <v>51744.47535182</v>
+        <v>113187.7105117124</v>
       </c>
       <c r="W13" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X13" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA13" t="n">
-        <v>3480</v>
+        <v>3530</v>
       </c>
       <c r="AB13" t="n">
-        <v>2010</v>
+        <v>2210</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8765,7 +8885,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8778,28 +8898,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>569735.15925</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>44359.33901235</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44435.1015925</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>458974.95</v>
+      </c>
+      <c r="AU13" t="n">
         <v>386655.844432495</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1168776.992694845</v>
+      <c r="AV13" t="n">
+        <v>888106.1846454749</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2521547.22893282</v>
       </c>
     </row>
     <row r="14">
@@ -8836,7 +8968,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>111</v>
@@ -8863,31 +8995,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>367987.6610322</v>
+        <v>989448.6467562576</v>
       </c>
       <c r="U14" t="n">
-        <v>51326.19504000001</v>
+        <v>139839.17817856</v>
       </c>
       <c r="V14" t="n">
-        <v>42363.35551662</v>
+        <v>113684.8098453709</v>
       </c>
       <c r="W14" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X14" t="n">
-        <v>860</v>
+        <v>910</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA14" t="n">
-        <v>3480</v>
+        <v>3530</v>
       </c>
       <c r="AB14" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8908,7 +9040,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8921,28 +9053,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>569735.15925</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>44359.33901235</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38508</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44197.1015925</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>458974.95</v>
+      </c>
+      <c r="AU14" t="n">
         <v>195429.552766415</v>
       </c>
-      <c r="AS14" t="n">
-        <v>977312.7010287651</v>
+      <c r="AV14" t="n">
+        <v>1178234.880177939</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2620211.632799204</v>
       </c>
     </row>
     <row r="15">
@@ -8979,7 +9123,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>111</v>
@@ -9006,31 +9150,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>531075.66577976</v>
+        <v>1554995.473115982</v>
       </c>
       <c r="U15" t="n">
-        <v>74832.71550016</v>
+        <v>233578.7888622912</v>
       </c>
       <c r="V15" t="n">
-        <v>68388.7133697</v>
+        <v>191561.2761783371</v>
       </c>
       <c r="W15" t="n">
-        <v>1940</v>
+        <v>2040</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="AA15" t="n">
-        <v>3480</v>
+        <v>3580</v>
       </c>
       <c r="AB15" t="n">
-        <v>2080</v>
+        <v>2480</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -9051,7 +9195,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -9064,28 +9208,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>878369.22447</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>69983.70978904999</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111462</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>129012.8844894</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>839779.75</v>
+      </c>
+      <c r="AU15" t="n">
         <v>245522.770347589</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1452717.504606639</v>
+      <c r="AV15" t="n">
+        <v>1971379.31519519</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4281427.45429123</v>
       </c>
     </row>
     <row r="16">
@@ -9122,7 +9278,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>111</v>
@@ -9149,31 +9305,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>548311.53031092</v>
+        <v>1602185.65074926</v>
       </c>
       <c r="U16" t="n">
-        <v>76589.35128352001</v>
+        <v>239761.1822592787</v>
       </c>
       <c r="V16" t="n">
-        <v>70399.8404673</v>
+        <v>197137.9995434907</v>
       </c>
       <c r="W16" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X16" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA16" t="n">
-        <v>3480</v>
+        <v>3680</v>
       </c>
       <c r="AB16" t="n">
-        <v>2150</v>
+        <v>2950</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -9194,7 +9350,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -9207,28 +9363,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>878369.22447</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>69983.70978904999</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111700</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>129250.8844894</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>839779.75</v>
+      </c>
+      <c r="AU16" t="n">
         <v>286443.402595133</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1493876.136854183</v>
+      <c r="AV16" t="n">
+        <v>2053573.534369772</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4404780.305713356</v>
       </c>
     </row>
     <row r="17">
@@ -9265,7 +9433,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>111</v>
@@ -9292,31 +9460,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1246396.70664312</v>
+        <v>2897968.076054289</v>
       </c>
       <c r="U17" t="n">
-        <v>171556.2636864</v>
+        <v>419627.7541557249</v>
       </c>
       <c r="V17" t="n">
-        <v>186867.22204</v>
+        <v>389540.45921088</v>
       </c>
       <c r="W17" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X17" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA17" t="n">
-        <v>3480</v>
+        <v>3680</v>
       </c>
       <c r="AB17" t="n">
-        <v>2430</v>
+        <v>3230</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -9337,7 +9505,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9350,28 +9518,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>2014934.76632</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>164935.3252872</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>688289.2</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>768853.5906528</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1341771.85</v>
+      </c>
+      <c r="AU17" t="n">
         <v>379856.01120208</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3517872.45280928</v>
+      <c r="AV17" t="n">
+        <v>3108699.52672927</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>8048908.22019135</v>
       </c>
     </row>
     <row r="18">
@@ -9408,7 +9588,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>111</v>
@@ -9435,31 +9615,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5852004.0078146</v>
+        <v>10072685.35743039</v>
       </c>
       <c r="U18" t="n">
-        <v>883149.6318462</v>
+        <v>1455402.891103891</v>
       </c>
       <c r="V18" t="n">
-        <v>857074.21057981</v>
+        <v>1332562.421892724</v>
       </c>
       <c r="W18" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X18" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA18" t="n">
-        <v>3480</v>
+        <v>3680</v>
       </c>
       <c r="AB18" t="n">
-        <v>2990</v>
+        <v>3790</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9480,7 +9660,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9493,28 +9673,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>12299029.796575</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>989779.181259125</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2010530</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2994386.383726</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1967705.9</v>
+      </c>
+      <c r="AU18" t="n">
         <v>994565.9005531624</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16889068.17838729</v>
+      <c r="AV18" t="n">
+        <v>7954123.769817113</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27794754.2319304</v>
       </c>
     </row>
     <row r="19">
@@ -9551,7 +9743,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>111</v>
@@ -9578,31 +9770,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9402440.318988599</v>
+        <v>17066175.8105169</v>
       </c>
       <c r="U19" t="n">
-        <v>1428620.9398462</v>
+        <v>2587885.4398723</v>
       </c>
       <c r="V19" t="n">
-        <v>1378809.48215431</v>
+        <v>2350610.020097583</v>
       </c>
       <c r="W19" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X19" t="n">
-        <v>2820</v>
+        <v>3020</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA19" t="n">
-        <v>3480</v>
+        <v>3680</v>
       </c>
       <c r="AB19" t="n">
-        <v>3900</v>
+        <v>4700</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9623,7 +9815,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9636,28 +9828,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>19958628.7232</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>1603260.7025615</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3474140.2</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6467810.75848</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1967705.9</v>
+      </c>
+      <c r="AU19" t="n">
         <v>994565.9005531624</v>
       </c>
-      <c r="AS19" t="n">
-        <v>27206328.32631466</v>
+      <c r="AV19" t="n">
+        <v>16291537.17640221</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>48459241.96119688</v>
       </c>
     </row>
     <row r="20">
@@ -9694,7 +9898,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>111</v>
@@ -9721,13 +9925,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>237179.36330392</v>
+        <v>244224.36330392</v>
       </c>
       <c r="U20" t="n">
-        <v>44151.21317384</v>
+        <v>45484.21317384</v>
       </c>
       <c r="V20" t="n">
-        <v>26159.3136224</v>
+        <v>27190.3136224</v>
       </c>
       <c r="W20" t="n">
         <v>900</v>
@@ -9766,7 +9970,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9779,28 +9983,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>595802.2328600001</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>1409.6878776</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32014.4</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>22170.95</v>
+      </c>
+      <c r="AU20" t="n">
         <v>20382.566794616</v>
       </c>
-      <c r="AS20" t="n">
-        <v>697044.2875322161</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>719215.2375322161</v>
       </c>
     </row>
     <row r="21">
@@ -9837,7 +10049,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>111</v>
@@ -9864,13 +10076,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>308943.99418944</v>
+        <v>323476.00283344</v>
       </c>
       <c r="U21" t="n">
-        <v>52293.78240698</v>
+        <v>55061.87803298</v>
       </c>
       <c r="V21" t="n">
-        <v>36621.90808748</v>
+        <v>38695.16395548001</v>
       </c>
       <c r="W21" t="n">
         <v>1100</v>
@@ -9909,7 +10121,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9922,28 +10134,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>708513.9704400001</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49107.75</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>19283.2048591</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>64028.8</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>71105.68970439999</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>38476.2</v>
+      </c>
+      <c r="AU21" t="n">
         <v>27469.989001512</v>
       </c>
-      <c r="AS21" t="n">
-        <v>887431.8143006121</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>932984.904005012</v>
       </c>
     </row>
     <row r="22">
@@ -9980,7 +10200,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>111</v>
@@ -10007,31 +10227,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>436930.97218146</v>
+        <v>568740.027438389</v>
       </c>
       <c r="U22" t="n">
-        <v>67354.0141532</v>
+        <v>86436.53319884921</v>
       </c>
       <c r="V22" t="n">
-        <v>55502.53039074</v>
+        <v>71259.45682566616</v>
       </c>
       <c r="W22" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X22" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA22" t="n">
-        <v>3280</v>
+        <v>3330</v>
       </c>
       <c r="AB22" t="n">
-        <v>2010</v>
+        <v>2210</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -10052,7 +10272,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -10065,28 +10285,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>901859.04015</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>48687.25915915</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>91895.2</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>100905.5404015</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>51962.35000000001</v>
+      </c>
+      <c r="AU22" t="n">
         <v>52482.420276145</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1232466.219585295</v>
+      <c r="AV22" t="n">
+        <v>293708.0732712339</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1587146.983258029</v>
       </c>
     </row>
     <row r="23">
@@ -10123,7 +10355,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>111</v>
@@ -10150,31 +10382,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>502226.20229773</v>
+        <v>728174.1990301466</v>
       </c>
       <c r="U23" t="n">
-        <v>75677.54690288</v>
+        <v>111452.824051117</v>
       </c>
       <c r="V23" t="n">
-        <v>67060.90791705</v>
+        <v>94941.70843261816</v>
       </c>
       <c r="W23" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X23" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA23" t="n">
-        <v>3480</v>
+        <v>3680</v>
       </c>
       <c r="AB23" t="n">
-        <v>2150</v>
+        <v>2950</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -10195,7 +10427,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -10208,28 +10440,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>986612.4367350001</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>78995.67916122499</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>142670</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>162385.7487347</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>95085.55</v>
+      </c>
+      <c r="AU23" t="n">
         <v>69499.1305544145</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1422300.49645064</v>
+      <c r="AV23" t="n">
+        <v>520710.7132850686</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2057812.508470408</v>
       </c>
     </row>
     <row r="24">
@@ -10266,7 +10510,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>111</v>
@@ -10293,31 +10537,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>582459.699152</v>
+        <v>918021.5351750719</v>
       </c>
       <c r="U24" t="n">
-        <v>89388.42849824</v>
+        <v>142976.5543200637</v>
       </c>
       <c r="V24" t="n">
-        <v>83096.55474107999</v>
+        <v>125982.8120243456</v>
       </c>
       <c r="W24" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X24" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA24" t="n">
-        <v>3480</v>
+        <v>3680</v>
       </c>
       <c r="AB24" t="n">
-        <v>2430</v>
+        <v>3230</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -10338,7 +10582,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10351,28 +10595,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1119578.43154</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>90156.9757215</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>239067.6</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>283817.7372616</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>151928.75</v>
+      </c>
+      <c r="AU24" t="n">
         <v>84160.38828956601</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1690296.045551066</v>
+      <c r="AV24" t="n">
+        <v>757636.9963108328</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2644611.929123498</v>
       </c>
     </row>
     <row r="25">
@@ -10409,7 +10665,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>111</v>
@@ -10436,31 +10692,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>746955.4308817</v>
+        <v>1573091.30791741</v>
       </c>
       <c r="U25" t="n">
-        <v>117429.2567494</v>
+        <v>240698.0542310334</v>
       </c>
       <c r="V25" t="n">
-        <v>115741.07499693</v>
+        <v>222105.799846258</v>
       </c>
       <c r="W25" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X25" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA25" t="n">
-        <v>3480</v>
+        <v>3680</v>
       </c>
       <c r="AB25" t="n">
-        <v>2990</v>
+        <v>3790</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10481,7 +10737,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10494,28 +10750,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1393419.966075</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>113097.466339125</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>431854.8</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>543262.397286</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>222809.3</v>
+      </c>
+      <c r="AU25" t="n">
         <v>116591.2012707825</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2237883.483684908</v>
+      <c r="AV25" t="n">
+        <v>1956470.850256616</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4528571.231227524</v>
       </c>
     </row>
   </sheetData>
